--- a/105 - 探索1 - Map Camera Zoom - 地图相机缩放.xlsx
+++ b/105 - 探索1 - Map Camera Zoom - 地图相机缩放.xlsx
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>介绍</t>
   </si>
@@ -574,6 +574,9 @@
     <t>Settings</t>
   </si>
   <si>
+    <t>设置</t>
+  </si>
+  <si>
     <t>Default Zoom:</t>
   </si>
   <si>
@@ -637,6 +640,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">强制地图的图块以像素化的形式渲染，而不管其他插件可能做什么。
 </t>
     </r>
@@ -655,6 +665,32 @@
   <si>
     <t>false</t>
   </si>
+  <si>
+    <t>Compatibility Parameters</t>
+  </si>
+  <si>
+    <t>兼容性参数</t>
+  </si>
+  <si>
+    <t>Map Lock Adjust:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">退出菜单时，将Map Lock（地图锁定）效果调整到地图的显示位置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For VisuMZ_4_VisualParallaxes.
+除非你知道自己在做什么，否则别管它</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -895,14 +931,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2256,13 +2292,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="37.625" customWidth="1"/>
     <col min="2" max="2" width="71.5" customWidth="1"/>
@@ -2284,41 +2320,64 @@
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
     <row r="3" ht="37.5" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="37.5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="37.5" spans="1:3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/105 - 探索1 - Map Camera Zoom - 地图相机缩放.xlsx
+++ b/105 - 探索1 - Map Camera Zoom - 地图相机缩放.xlsx
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>介绍</t>
   </si>
@@ -607,6 +607,9 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>Adapt Battle Encounter Ani:</t>
   </si>
   <si>
@@ -676,6 +679,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">退出菜单时，将Map Lock（地图锁定）效果调整到地图的显示位置。
 </t>
     </r>
@@ -931,14 +941,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -955,7 +965,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +981,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1309,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,16 +1333,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1335,85 +1351,85 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,8 +1464,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2209,7 +2225,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2295,15 +2311,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="37.625" customWidth="1"/>
     <col min="2" max="2" width="71.5" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" spans="1:4">
@@ -2326,7 +2341,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="37.5" spans="1:3">
+    <row r="3" ht="37.5" spans="1:4">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2336,48 +2351,51 @@
       <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D3" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" ht="25.5" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="37.5" spans="1:3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" ht="37.5" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
